--- a/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
+++ b/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,13 +939,863 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
+++ b/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,433 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3115</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014283</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏北交所创新中小企业精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2115</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2053</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014273</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发北交所精选两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>52.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1966</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014294</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方北交所精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014663</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国创新发展两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014270</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014274</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发北交所精选两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>52.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014664</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国创新发展两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1742,64 +1374,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.54</v>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
+++ b/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>3.54</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -571,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014271</t>
+          <t>011790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合A</t>
+          <t>建信创新驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.33</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4903</t>
+          <t>0.5544</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -609,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014273</t>
+          <t>014294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合A</t>
+          <t>南方北交所精选两年定开混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>75.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4597</t>
+          <t>0.3527</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014294</t>
+          <t>013895</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方北交所精选两年定开混合</t>
+          <t>宝盈成长精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4321</t>
+          <t>0.3438</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -685,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014279</t>
+          <t>014271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富北交所创新精选两年定开混合A</t>
+          <t>大成北交所两年定开混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>65.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3159</t>
+          <t>0.3112</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -723,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014283</t>
+          <t>014273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏北交所创新中小企业精选两年定开混合</t>
+          <t>广发北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>68.01</t>
+          <t>64.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2714</t>
+          <t>0.2885</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -761,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014269</t>
+          <t>014277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实北交所精选两年定期混合A</t>
+          <t>万家北交所慧选两年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>0.2026</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -799,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014277</t>
+          <t>014269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家北交所慧选两年定期开放混合A</t>
+          <t>嘉实北交所精选两年定期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2446</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -837,36 +854,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>014279</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>汇添富北交所创新精选两年定开混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2037</t>
+          <t>0.1507</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -875,36 +892,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014275</t>
+          <t>014283</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达北交所精选两年定开混合A</t>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>71.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1756</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -913,36 +930,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>013896</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>宝盈成长精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1587</t>
+          <t>0.1184</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -951,36 +968,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014272</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合C</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>62.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0950</t>
+          <t>0.1181</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -989,36 +1006,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014274</t>
+          <t>014275</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合C</t>
+          <t>易方达北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>61.75</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.1095</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1027,36 +1044,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014653</t>
+          <t>014272</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信卓越成长一年持有混合A</t>
+          <t>大成北交所两年定开混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>65.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.0740</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1065,36 +1082,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014663</t>
+          <t>014274</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国创新发展两年定期开放混合A</t>
+          <t>广发北交所精选两年定开混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.02</t>
+          <t>64.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0713</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1103,36 +1120,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014280</t>
+          <t>014653</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富北交所创新精选两年定开混合C</t>
+          <t>建信卓越成长一年持有混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1151,26 +1168,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1189,26 +1206,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>61.75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0361</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1227,22 +1244,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1255,36 +1272,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>014280</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>汇添富北交所创新精选两年定开混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1293,36 +1310,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>014654</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建信卓越成长一年持有混合C</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1331,36 +1348,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>014664</t>
+          <t>014654</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国创新发展两年定期开放混合C</t>
+          <t>建信卓越成长一年持有混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.02</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1369,6 +1386,860 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
+++ b/数据整理/stocks/A股/北交所/836077-吉林碳谷.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.19</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>3.54</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>91.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5544</t>
+          <t>0.5333</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -636,22 +653,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.23</t>
+          <t>90.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3527</t>
+          <t>0.3447</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -664,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013895</t>
+          <t>014271</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈成长精选混合A</t>
+          <t>大成北交所两年定开混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>68.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3438</t>
+          <t>0.3042</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014271</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合A</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3112</t>
+          <t>0.2831</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -750,26 +767,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.25</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2885</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014277</t>
+          <t>014283</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家北交所慧选两年定期开放混合A</t>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>90.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2026</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -826,26 +843,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1689</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -854,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014279</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富北交所创新精选两年定开混合A</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>88.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1507</t>
+          <t>0.1138</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -892,12 +909,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014283</t>
+          <t>014275</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏北交所创新中小企业精选两年定开混合</t>
+          <t>易方达北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -907,21 +924,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.59</t>
+          <t>70.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1450</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -930,32 +947,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013896</t>
+          <t>014272</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈成长精选混合C</t>
+          <t>大成北交所两年定开混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>68.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1184</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -968,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>016307</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>景顺长城北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>43.56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1181</t>
+          <t>0.0509</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1006,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014275</t>
+          <t>014653</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达北交所精选两年定开混合A</t>
+          <t>建信卓越成长一年持有混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>61.75</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1095</t>
+          <t>0.0507</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1044,36 +1061,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014272</t>
+          <t>014274</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合C</t>
+          <t>广发北交所精选两年定开混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0740</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1082,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014274</t>
+          <t>014270</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合C</t>
+          <t>嘉实北交所精选两年定期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>64.25</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0728</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1120,36 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014653</t>
+          <t>014276</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信卓越成长一年持有混合A</t>
+          <t>易方达北交所精选两年定开混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>70.57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1158,36 +1175,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>014270</t>
+          <t>016308</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实北交所精选两年定期混合C</t>
+          <t>景顺长城北交所精选两年定开混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>43.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1196,36 +1213,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>014276</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达北交所精选两年定开混合C</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>61.75</t>
+          <t>88.20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1234,150 +1251,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>014278</t>
+          <t>014654</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>万家北交所慧选两年定期开放混合C</t>
+          <t>建信卓越成长一年持有混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>014280</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富北交所创新精选两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>014654</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>建信卓越成长一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1442,36 +1345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014271</t>
+          <t>011790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合A</t>
+          <t>建信创新驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.33</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4903</t>
+          <t>0.5544</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1480,36 +1383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014273</t>
+          <t>014294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合A</t>
+          <t>南方北交所精选两年定开混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>75.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4597</t>
+          <t>0.3527</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1518,36 +1421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014294</t>
+          <t>013895</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方北交所精选两年定开混合</t>
+          <t>宝盈成长精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4321</t>
+          <t>0.3438</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1556,36 +1459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014279</t>
+          <t>014271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富北交所创新精选两年定开混合A</t>
+          <t>大成北交所两年定开混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>65.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3159</t>
+          <t>0.3112</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1594,36 +1497,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014283</t>
+          <t>014273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏北交所创新中小企业精选两年定开混合</t>
+          <t>广发北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>68.01</t>
+          <t>64.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2714</t>
+          <t>0.2885</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1632,36 +1535,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014269</t>
+          <t>014277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实北交所精选两年定期混合A</t>
+          <t>万家北交所慧选两年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>0.2026</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1670,36 +1573,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014277</t>
+          <t>014269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家北交所慧选两年定期开放混合A</t>
+          <t>嘉实北交所精选两年定期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2446</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1708,36 +1611,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>014279</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>汇添富北交所创新精选两年定开混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2037</t>
+          <t>0.1507</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1746,36 +1649,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014275</t>
+          <t>014283</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达北交所精选两年定开混合A</t>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>71.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1756</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1784,36 +1687,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>013896</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>宝盈成长精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1587</t>
+          <t>0.1184</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1822,36 +1725,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014272</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成北交所两年定开混合C</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>62.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0950</t>
+          <t>0.1181</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1860,36 +1763,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014274</t>
+          <t>014275</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合C</t>
+          <t>易方达北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>61.75</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.1095</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1898,36 +1801,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014653</t>
+          <t>014272</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信卓越成长一年持有混合A</t>
+          <t>大成北交所两年定开混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>65.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.0740</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1936,36 +1839,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014663</t>
+          <t>014274</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国创新发展两年定期开放混合A</t>
+          <t>广发北交所精选两年定开混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.02</t>
+          <t>64.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0713</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1974,36 +1877,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014280</t>
+          <t>014653</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富北交所创新精选两年定开混合C</t>
+          <t>建信卓越成长一年持有混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.06</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2022,26 +1925,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2060,26 +1963,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>61.75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0361</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2098,22 +2001,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2126,36 +2029,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>014280</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>汇添富北交所创新精选两年定开混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2164,36 +2067,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>014654</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建信卓越成长一年持有混合C</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2202,36 +2105,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>014664</t>
+          <t>014654</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国创新发展两年定期开放混合C</t>
+          <t>建信卓越成长一年持有混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>83.02</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2240,6 +2143,860 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
